--- a/W8/Excel/SWP391-OnlineShop-Project Tracking.xlsx
+++ b/W8/Excel/SWP391-OnlineShop-Project Tracking.xlsx
@@ -713,9 +713,9 @@
   </sheetPr>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1420,25 +1420,25 @@
       <c r="G19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="18">
         <v>4</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="13" t="s">
+      <c r="K19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="23" t="s">
+      <c r="M19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="13" t="s">
+      <c r="O19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1732,25 +1732,25 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="27" t="s">
+      <c r="D30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="F30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>8</v>
       </c>
     </row>

--- a/W8/Excel/SWP391-OnlineShop-Project Tracking.xlsx
+++ b/W8/Excel/SWP391-OnlineShop-Project Tracking.xlsx
@@ -89,15 +89,9 @@
     <t>Makerting</t>
   </si>
   <si>
-    <t>Blog list</t>
-  </si>
-  <si>
     <t>Search product</t>
   </si>
   <si>
-    <t>Notification</t>
-  </si>
-  <si>
     <t>Manage Blogs</t>
   </si>
   <si>
@@ -191,18 +185,12 @@
     <t>Create Order</t>
   </si>
   <si>
-    <t>List Account</t>
-  </si>
-  <si>
     <t>Account Detail</t>
   </si>
   <si>
     <t>Manage Order</t>
   </si>
   <si>
-    <t>Manage Service</t>
-  </si>
-  <si>
     <t>Chat with seller</t>
   </si>
   <si>
@@ -221,21 +209,6 @@
     <t>Delete Product in Cart</t>
   </si>
   <si>
-    <t>Service Detail</t>
-  </si>
-  <si>
-    <t>List Shop</t>
-  </si>
-  <si>
-    <t>Shop Details</t>
-  </si>
-  <si>
-    <t>Manage Product</t>
-  </si>
-  <si>
-    <t>Manage Feedback</t>
-  </si>
-  <si>
     <t>Search Account</t>
   </si>
   <si>
@@ -243,6 +216,33 @@
   </si>
   <si>
     <t>Manage Blog Detail</t>
+  </si>
+  <si>
+    <t>Feedback list</t>
+  </si>
+  <si>
+    <t>List of Accounts</t>
+  </si>
+  <si>
+    <t>List of Blogs</t>
+  </si>
+  <si>
+    <t>List of Shops</t>
+  </si>
+  <si>
+    <t>Shop Information</t>
+  </si>
+  <si>
+    <t>Manage Products</t>
+  </si>
+  <si>
+    <t>Favorite Products</t>
+  </si>
+  <si>
+    <t>Report Shop</t>
+  </si>
+  <si>
+    <t>Update Sale Price</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -488,6 +488,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -714,8 +723,8 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -757,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -778,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>2</v>
@@ -802,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>16</v>
@@ -820,16 +829,16 @@
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>7</v>
@@ -850,7 +859,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
@@ -868,16 +877,16 @@
         <v>2</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>7</v>
@@ -892,13 +901,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>16</v>
@@ -916,16 +925,16 @@
         <v>3</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>7</v>
@@ -940,13 +949,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>16</v>
@@ -964,16 +973,16 @@
         <v>4</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>7</v>
@@ -988,13 +997,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>16</v>
@@ -1012,16 +1021,16 @@
         <v>5</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O8" s="13" t="s">
         <v>11</v>
@@ -1036,13 +1045,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>16</v>
@@ -1060,16 +1069,16 @@
         <v>6</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>32</v>
       </c>
       <c r="O9" s="18" t="s">
         <v>7</v>
@@ -1079,26 +1088,26 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="12"/>
@@ -1108,16 +1117,16 @@
         <v>7</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>7</v>
@@ -1132,13 +1141,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>16</v>
@@ -1156,16 +1165,16 @@
         <v>8</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>11</v>
@@ -1180,13 +1189,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
@@ -1199,26 +1208,26 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="13">
+      <c r="J12" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="13" t="s">
+      <c r="K12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="13" t="s">
+      <c r="O12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1233,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>2</v>
@@ -1254,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>2</v>
@@ -1270,17 +1279,17 @@
       <c r="A16" s="9">
         <v>1</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>39</v>
+      <c r="B16" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>7</v>
@@ -1292,16 +1301,16 @@
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>7</v>
@@ -1314,17 +1323,17 @@
       <c r="A17" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>40</v>
+      <c r="B17" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>7</v>
@@ -1336,16 +1345,16 @@
         <v>2</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O17" s="18" t="s">
         <v>7</v>
@@ -1358,17 +1367,17 @@
       <c r="A18" s="9">
         <v>3</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>41</v>
+      <c r="B18" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>7</v>
@@ -1380,16 +1389,16 @@
         <v>3</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>7</v>
@@ -1402,17 +1411,17 @@
       <c r="A19" s="18">
         <v>4</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>42</v>
+      <c r="B19" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>7</v>
@@ -1424,16 +1433,16 @@
         <v>4</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="31" t="s">
-        <v>49</v>
       </c>
       <c r="O19" s="18" t="s">
         <v>7</v>
@@ -1446,17 +1455,17 @@
       <c r="A20" s="18">
         <v>5</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>43</v>
+      <c r="B20" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>7</v>
@@ -1464,25 +1473,25 @@
       <c r="G20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="13">
         <v>5</v>
       </c>
-      <c r="K20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="18" t="s">
+      <c r="K20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="O20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="18" t="s">
+      <c r="M20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1490,17 +1499,17 @@
       <c r="A21" s="18">
         <v>6</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>44</v>
+      <c r="B21" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>7</v>
@@ -1511,17 +1520,17 @@
       <c r="J21" s="18">
         <v>6</v>
       </c>
-      <c r="K21" s="20" t="s">
-        <v>55</v>
+      <c r="K21" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>5</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O21" s="18" t="s">
         <v>7</v>
@@ -1534,17 +1543,17 @@
       <c r="A22" s="18">
         <v>7</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>45</v>
+      <c r="B22" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>7</v>
@@ -1552,25 +1561,25 @@
       <c r="G22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="13">
-        <v>7</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="13" t="s">
+      <c r="J22" s="18">
+        <v>7</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1579,16 +1588,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>11</v>
@@ -1599,17 +1608,17 @@
       <c r="J23" s="13">
         <v>8</v>
       </c>
-      <c r="K23" s="21" t="s">
-        <v>57</v>
+      <c r="K23" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O23" s="13" t="s">
         <v>11</v>
@@ -1623,16 +1632,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>11</v>
@@ -1640,25 +1649,25 @@
       <c r="G24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="18">
         <v>9</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L24" s="13" t="s">
+      <c r="K24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="13" t="s">
+      <c r="M24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1673,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>2</v>
@@ -1690,16 +1699,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>7</v>
@@ -1713,16 +1722,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>7</v>
@@ -1732,25 +1741,25 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="A30" s="18">
         <v>3</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="13" t="s">
+      <c r="B30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1759,16 +1768,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>7</v>
@@ -1782,16 +1791,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>11</v>
@@ -1805,16 +1814,16 @@
         <v>6</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>7</v>
@@ -1828,16 +1837,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>7</v>
@@ -1847,25 +1856,25 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="A35" s="18">
         <v>8</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="B35" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1874,16 +1883,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>11</v>
@@ -1895,10 +1904,10 @@
   </sheetData>
   <autoFilter ref="A3:E7"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12 O4:O12 F16:F24 O16:O24 F28:F36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12 O4:O12 F16:F24 F28:F36 O16:O24">
       <formula1>"To Do, Doing, Done, Updated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H12 P5:P12 G17:G24 P17:P24 G29:G36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H12 P5:P12 G17:G24 G29:G36 P17:P24">
       <formula1>"iter1, iter2, iter3, iter4,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:H4 P4 G16 P16 G28">

--- a/W8/Excel/SWP391-OnlineShop-Project Tracking.xlsx
+++ b/W8/Excel/SWP391-OnlineShop-Project Tracking.xlsx
@@ -98,9 +98,6 @@
     <t>Seller</t>
   </si>
   <si>
-    <t>Manage requests</t>
-  </si>
-  <si>
     <t>Admin Dashboard</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>Add to cart</t>
   </si>
   <si>
-    <t>Delete Product in Cart</t>
-  </si>
-  <si>
     <t>Search Account</t>
   </si>
   <si>
@@ -242,14 +236,20 @@
     <t>Report Shop</t>
   </si>
   <si>
-    <t>Update Sale Price</t>
+    <t>Product History</t>
+  </si>
+  <si>
+    <t>List of Report</t>
+  </si>
+  <si>
+    <t>Comment blogs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -323,6 +323,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -350,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -386,6 +398,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -394,7 +452,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -435,18 +493,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -456,24 +505,15 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +537,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -720,11 +772,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -766,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -787,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>2</v>
@@ -811,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>16</v>
@@ -829,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>7</v>
@@ -859,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
@@ -877,16 +929,16 @@
         <v>2</v>
       </c>
       <c r="K5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>7</v>
@@ -901,13 +953,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>16</v>
@@ -925,16 +977,16 @@
         <v>3</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>7</v>
@@ -944,26 +996,26 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="B7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="12"/>
@@ -972,17 +1024,17 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>32</v>
+      <c r="K7" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>7</v>
@@ -1003,7 +1055,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>16</v>
@@ -1016,170 +1068,170 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="13">
+      <c r="J8" s="15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="13" t="s">
+      <c r="K8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="13" t="s">
+      <c r="M8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="B9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="18" t="s">
+      <c r="K9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="B10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="18">
+      <c r="J10" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="18" t="s">
+      <c r="K10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="18" t="s">
+      <c r="M10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="D11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="13">
+      <c r="J11" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="13" t="s">
+      <c r="M11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1195,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
@@ -1208,26 +1260,26 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="18" t="s">
+      <c r="K12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="18" t="s">
+      <c r="M12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1242,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>2</v>
@@ -1263,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>2</v>
@@ -1279,17 +1331,17 @@
       <c r="A16" s="9">
         <v>1</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>37</v>
+      <c r="B16" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>7</v>
@@ -1301,16 +1353,16 @@
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>7</v>
@@ -1323,17 +1375,17 @@
       <c r="A17" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>38</v>
+      <c r="B17" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>7</v>
@@ -1341,25 +1393,25 @@
       <c r="G17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="15">
         <v>2</v>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="18" t="s">
+      <c r="K17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1367,17 +1419,17 @@
       <c r="A18" s="9">
         <v>3</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>39</v>
+      <c r="B18" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>7</v>
@@ -1389,16 +1441,16 @@
         <v>3</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>7</v>
@@ -1408,266 +1460,266 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="15">
         <v>4</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="15">
+        <v>4</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>5</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="C20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="15">
+        <v>5</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>6</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="15">
+        <v>6</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>7</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="15">
+        <v>7</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>8</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="E23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="15">
         <v>8</v>
       </c>
-      <c r="J19" s="18">
-        <v>4</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="18" t="s">
+      <c r="K23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>9</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="C24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>5</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="E24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="15">
+        <v>9</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="13">
-        <v>5</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>6</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="18">
-        <v>6</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
-        <v>7</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="18">
-        <v>7</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>8</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="13">
-        <v>8</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>9</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="N24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="18">
-        <v>9</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P24" s="18" t="s">
+      <c r="O24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1682,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>2</v>
@@ -1699,16 +1751,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>55</v>
+        <v>27</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>7</v>
@@ -1722,16 +1774,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>7</v>
@@ -1741,48 +1793,48 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="15">
         <v>3</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="18" t="s">
+      <c r="B30" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="15">
         <v>4</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="B31" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1791,16 +1843,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>11</v>
@@ -1810,96 +1862,104 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="15">
         <v>6</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>7</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>8</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="18" t="s">
+      <c r="C35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
-        <v>7</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="18" t="s">
+      <c r="E35" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
-        <v>8</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="18" t="s">
+    <row r="36" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>9</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="18" t="s">
+      <c r="D36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>9</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>9</v>
-      </c>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="30"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E7"/>

--- a/W8/Excel/SWP391-OnlineShop-Project Tracking.xlsx
+++ b/W8/Excel/SWP391-OnlineShop-Project Tracking.xlsx
@@ -62,187 +62,187 @@
     <t>Common</t>
   </si>
   <si>
+    <t>Screen/Function</t>
+  </si>
+  <si>
+    <t>iter1</t>
+  </si>
+  <si>
+    <t>Information in the columns A-E are filled in the project initiation; columns F-J to be filled by the end of each development iteration</t>
+  </si>
+  <si>
+    <t>Total Project Tracking</t>
+  </si>
+  <si>
+    <t>VietTTHE153481</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Show products</t>
+  </si>
+  <si>
+    <t>Makerting</t>
+  </si>
+  <si>
+    <t>Search product</t>
+  </si>
+  <si>
+    <t>Manage Blogs</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Register for seller</t>
+  </si>
+  <si>
+    <t>AnhVHHE163109</t>
+  </si>
+  <si>
+    <t>View Order</t>
+  </si>
+  <si>
+    <t>Order Detail</t>
+  </si>
+  <si>
+    <t>Cancel Order</t>
+  </si>
+  <si>
+    <t>View Shop</t>
+  </si>
+  <si>
+    <t>Reply Feedback</t>
+  </si>
+  <si>
+    <t>HieuNTHE160326</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blog Detail</t>
+  </si>
+  <si>
+    <t>Search Blog</t>
+  </si>
+  <si>
+    <t>View Service</t>
+  </si>
+  <si>
+    <t>Search Service</t>
+  </si>
+  <si>
+    <t>Add feedback</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Seller Dashboard</t>
+  </si>
+  <si>
+    <t>MinhTCHE161354</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Add Address</t>
+  </si>
+  <si>
+    <t>View Cart</t>
+  </si>
+  <si>
+    <t>Create Order</t>
+  </si>
+  <si>
+    <t>Account Detail</t>
+  </si>
+  <si>
+    <t>Manage Order</t>
+  </si>
+  <si>
+    <t>Chat with seller</t>
+  </si>
+  <si>
+    <t>ThaiLSHE160614</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Product Detail</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>Search Account</t>
+  </si>
+  <si>
+    <t>Search Shop</t>
+  </si>
+  <si>
+    <t>Manage Blog Detail</t>
+  </si>
+  <si>
+    <t>Feedback list</t>
+  </si>
+  <si>
+    <t>List of Accounts</t>
+  </si>
+  <si>
+    <t>List of Blogs</t>
+  </si>
+  <si>
+    <t>List of Shops</t>
+  </si>
+  <si>
+    <t>Shop Information</t>
+  </si>
+  <si>
+    <t>Manage Products</t>
+  </si>
+  <si>
+    <t>Favorite Products</t>
+  </si>
+  <si>
+    <t>Report Shop</t>
+  </si>
+  <si>
+    <t>Product History</t>
+  </si>
+  <si>
+    <t>List of Report</t>
+  </si>
+  <si>
+    <t>Comment blogs</t>
+  </si>
+  <si>
     <t>Doing</t>
-  </si>
-  <si>
-    <t>Screen/Function</t>
-  </si>
-  <si>
-    <t>iter1</t>
-  </si>
-  <si>
-    <t>Information in the columns A-E are filled in the project initiation; columns F-J to be filled by the end of each development iteration</t>
-  </si>
-  <si>
-    <t>Total Project Tracking</t>
-  </si>
-  <si>
-    <t>VietTTHE153481</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>Show products</t>
-  </si>
-  <si>
-    <t>Makerting</t>
-  </si>
-  <si>
-    <t>Search product</t>
-  </si>
-  <si>
-    <t>Manage Blogs</t>
-  </si>
-  <si>
-    <t>Seller</t>
-  </si>
-  <si>
-    <t>Admin Dashboard</t>
-  </si>
-  <si>
-    <t>Change password</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Register for seller</t>
-  </si>
-  <si>
-    <t>AnhVHHE163109</t>
-  </si>
-  <si>
-    <t>View Order</t>
-  </si>
-  <si>
-    <t>Order Detail</t>
-  </si>
-  <si>
-    <t>Cancel Order</t>
-  </si>
-  <si>
-    <t>View Shop</t>
-  </si>
-  <si>
-    <t>Reply Feedback</t>
-  </si>
-  <si>
-    <t>HieuNTHE160326</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>User Profile</t>
-  </si>
-  <si>
-    <t>Update Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blog Detail</t>
-  </si>
-  <si>
-    <t>Search Blog</t>
-  </si>
-  <si>
-    <t>View Service</t>
-  </si>
-  <si>
-    <t>Search Service</t>
-  </si>
-  <si>
-    <t>Add feedback</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Seller Dashboard</t>
-  </si>
-  <si>
-    <t>MinhTCHE161354</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Add Address</t>
-  </si>
-  <si>
-    <t>View Cart</t>
-  </si>
-  <si>
-    <t>Create Order</t>
-  </si>
-  <si>
-    <t>Account Detail</t>
-  </si>
-  <si>
-    <t>Manage Order</t>
-  </si>
-  <si>
-    <t>Chat with seller</t>
-  </si>
-  <si>
-    <t>ThaiLSHE160614</t>
-  </si>
-  <si>
-    <t>Forgot Password</t>
-  </si>
-  <si>
-    <t>Product Detail</t>
-  </si>
-  <si>
-    <t>Add to cart</t>
-  </si>
-  <si>
-    <t>Search Account</t>
-  </si>
-  <si>
-    <t>Search Shop</t>
-  </si>
-  <si>
-    <t>Manage Blog Detail</t>
-  </si>
-  <si>
-    <t>Feedback list</t>
-  </si>
-  <si>
-    <t>List of Accounts</t>
-  </si>
-  <si>
-    <t>List of Blogs</t>
-  </si>
-  <si>
-    <t>List of Shops</t>
-  </si>
-  <si>
-    <t>Shop Information</t>
-  </si>
-  <si>
-    <t>Manage Products</t>
-  </si>
-  <si>
-    <t>Favorite Products</t>
-  </si>
-  <si>
-    <t>Report Shop</t>
-  </si>
-  <si>
-    <t>Product History</t>
-  </si>
-  <si>
-    <t>List of Report</t>
-  </si>
-  <si>
-    <t>Comment blogs</t>
   </si>
 </sst>
 </file>
@@ -351,13 +351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,65 +490,65 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -775,8 +775,8 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -799,12 +799,12 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -812,13 +812,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -833,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>2</v>
@@ -857,22 +857,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="7"/>
@@ -881,22 +881,22 @@
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -905,22 +905,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="7"/>
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="K5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="O5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -953,16 +953,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>7</v>
@@ -977,16 +977,16 @@
         <v>3</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>7</v>
@@ -996,26 +996,26 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="B7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="12"/>
@@ -1024,17 +1024,17 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>31</v>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>7</v>
@@ -1049,16 +1049,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>7</v>
@@ -1068,170 +1068,170 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="15" t="s">
+      <c r="K8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="B9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="15" t="s">
+      <c r="K9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="B10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="15" t="s">
+      <c r="K10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="15" t="s">
+      <c r="M10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="D11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="15" t="s">
+      <c r="K11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1241,16 +1241,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>7</v>
@@ -1260,26 +1260,26 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="15" t="s">
+      <c r="K12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>2</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>2</v>
@@ -1331,105 +1331,105 @@
       <c r="A16" s="9">
         <v>1</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>36</v>
+      <c r="B16" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="9">
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>37</v>
+      <c r="B17" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="15">
+        <v>12</v>
+      </c>
+      <c r="J17" s="14">
         <v>2</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>13</v>
+      <c r="K17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>3</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>38</v>
+      <c r="B18" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>7</v>
@@ -1441,16 +1441,16 @@
         <v>3</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>7</v>
@@ -1460,266 +1460,266 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>4</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="14">
+        <v>4</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>5</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="14">
+        <v>5</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>6</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="14">
+        <v>6</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>7</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="14">
+        <v>7</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>8</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="E23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="14">
         <v>8</v>
       </c>
-      <c r="J19" s="15">
-        <v>4</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="15" t="s">
+      <c r="K23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>9</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="C24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>5</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="E24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="14">
+        <v>9</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="15">
-        <v>5</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>6</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="15">
-        <v>6</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>7</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="15">
-        <v>7</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>8</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="15">
-        <v>8</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>9</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="N24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="15">
-        <v>9</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P24" s="15" t="s">
+      <c r="O24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>2</v>
@@ -1751,22 +1751,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1774,192 +1774,192 @@
         <v>2</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>3</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>4</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <v>5</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>6</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>7</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>8</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>3</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>4</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>5</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>6</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>7</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="E35" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>8</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="15" t="s">
+    <row r="36" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="B36" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="30"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="28"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="29"/>
+      <c r="C41" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E7"/>
